--- a/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,145 +2796,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: Meta Adversarial Threat Report 2022),(Citation: Wandera-RedDrop),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: cleafy_brata_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-XLoader),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint SimBad 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Pegasus),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: welivesec_strongpity),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint-Charger),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Gooligan Citation),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: Cylance Dust Storm),(Citation: securelist_brata_0819),(Citation: cyble_drinik_1022),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Gooligan Citation),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList DVMap June 2017),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Xiao-ZergHelper),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Google Security Zen),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Talos GPlayed),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: Xiao-ZergHelper),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: cyble_chameleon_0423),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: welivesec_strongpity),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Cylance Dust Storm),(Citation: Wandera-RedDrop),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: Cylance Dust Storm),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Zimperium FlyTrap),(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),</t>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-Xbot),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Cofense Anubis),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: Gooligan Citation),(Citation: Lookout-BrainTest),(Citation: Tripwire-MazarBOT),(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Group IB Gustuff Mar 2019),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Proofpoint-Marcher),(Citation: Trend Micro FlyTrap),(Citation: cyble_chameleon_0423),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Tripwire-MazarBOT),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint SimBad 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: Trend Micro FlyTrap),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Google Security Zen),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Pegasus),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: Meta Adversarial Threat Report 2022),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: Google Project Zero Insomnia),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist_brata_0819),(Citation: Forbes Cerberus),(Citation: blackberry_mobile_malware_apt_esp),(Citation: fb_arid_viper),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_apt-c-23),(Citation: Lookout ViperRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: MoustachedBouncer ESET August 2023),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Proofpoint-Droidjack),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: CrowdStrike-Android),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: sophos_android_apt_spyware),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint Agent Smith),(Citation: Cofense Anubis),(Citation: CheckPoint SimBad 2019),(Citation: trendmicro_strongpity),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: checkpoint_hamas_android_malware),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),</t>
+    <t>(Citation: securelist_brata_0819),(Citation: cyble_drinik_1022),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: NYTimes-BackDoor),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: cleafy_brata_0122),(Citation: kaspersky_fakecalls_0422),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: CrowdStrike-Android),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: CrowdStrike-Android),(Citation: sophos_android_apt_spyware),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Droidjack),(Citation: trendmicro_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: checkpoint_hamas_android_malware),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint Agent Smith),(Citation: MoustachedBouncer ESET August 2023),(Citation: Forbes Cerberus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: CheckPoint SimBad 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: TrendMicro-Obad),(Citation: PaloAlto-WireLurker),(Citation: SecureList DVMap June 2017),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: CheckPoint-Charger),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: TrendMicro-Obad),(Citation: Microsoft MalLockerB),(Citation: cleafy_brata_0122),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Check Point-Joker),(Citation: Volexity Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),(Citation: Leonard TAG 2023),(Citation: CitizenLab Great iPwn),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: SecurityIntelligence TrickMo),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Tripwire-MazarBOT),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Pegasus),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: cyble_chameleon_0423),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Kaspersky Triada March 2016),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Cylance Dust Storm),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Tripwire-MazarBOT),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Triada March 2016),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-Xbot),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: FireEye-RuMMS),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: lookout_abstractemu_1021),(Citation: cleafy_sova_1122),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CheckPoint Agent Smith),(Citation: cyble_chameleon_0423),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Lookout-PegasusAndroid),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Zimperium FlyTrap),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: TrendMicro-Anserver2),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: Lookout ViperRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: Xiao-KeyRaider),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: CheckPoint Cerberus),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: PaloAlto-DualToy),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: Trend Micro FlyTrap),(Citation: Cybereason EventBot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Threat Fabric Exobot),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),(Citation: checkpoint_hamas_android_malware),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: fb_arid_viper),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Zimperium FlyTrap),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint SimBad 2019),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Xiao-KeyRaider),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: FireEye-RuMMS),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: forcepoint_bitter),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: checkpoint_hamas_android_malware),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),(Citation: PaloAlto-DualToy),(Citation: FireEye-RuMMS),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: kaspersky_fakecalls_0422),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: Volexity Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: SecureList - ViceLeaker 2019),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Sophos Red Alert 2.0),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-MobileMalware),(Citation: Volexity Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Zimperium FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: FireEye-RuMMS),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>
